--- a/potentials/morse/generate_simple_mixing_potential.xlsx
+++ b/potentials/morse/generate_simple_mixing_potential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\morse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0354FEEB-BCE0-439C-93E9-32C994F7D17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03F3F8-5995-4013-9647-AF6D0191BE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3390" windowWidth="18330" windowHeight="12120" xr2:uid="{9FA31FFC-5884-4546-BFEE-7BADB99B6D33}"/>
+    <workbookView xWindow="495" yWindow="0" windowWidth="14385" windowHeight="15225" xr2:uid="{9FA31FFC-5884-4546-BFEE-7BADB99B6D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -245,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,9 +258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -285,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
@@ -611,7 +608,7 @@
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -627,10 +624,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -642,44 +639,40 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>3.64556024</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="I4" s="4"/>
       <c r="J4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1.3858999999999999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>1.0103</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>2.5777999999999999</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>3.1116999999999999</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="J5" t="s">
@@ -687,10 +680,10 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -702,44 +695,40 @@
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>4.0118326010000001</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
       <c r="J8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1.7364999999999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1.1685000000000001</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>2.8368000000000002</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>3.4243000000000001</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="J9" t="s">
@@ -747,10 +736,10 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -762,50 +751,46 @@
       <c r="B12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <f>MAX(C4,C8)</f>
         <v>4.0118326010000001</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="4"/>
       <c r="J12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <f>SQRT(C5*C9)</f>
         <v>1.5513269642470602</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <f>(D5+D9)/2</f>
         <v>1.0893999999999999</v>
       </c>
-      <c r="E13" s="13">
-        <f>SQRT(E5*E9)</f>
-        <v>2.7042009984466762</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="E13" s="12">
+        <f>((D5*E5+D9*E9)/2)/D13</f>
+        <v>2.7167028364237198</v>
+      </c>
+      <c r="F13" s="12">
         <f>SQRT(F5*F9)</f>
         <v>3.2642601474147246</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="7" t="str">
+      <c r="H13" s="6" t="str">
         <f>H5</f>
         <v>Fe</v>
       </c>
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="7" t="str">
         <f>I9</f>
         <v>Mo</v>
       </c>

--- a/potentials/morse/generate_simple_mixing_potential.xlsx
+++ b/potentials/morse/generate_simple_mixing_potential.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\morse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03F3F8-5995-4013-9647-AF6D0191BE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A1F199-461A-42ED-94CF-4949A217F88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="0" windowWidth="14385" windowHeight="15225" xr2:uid="{9FA31FFC-5884-4546-BFEE-7BADB99B6D33}"/>
+    <workbookView xWindow="495" yWindow="0" windowWidth="18615" windowHeight="15225" xr2:uid="{9FA31FFC-5884-4546-BFEE-7BADB99B6D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>pair_style morse</t>
   </si>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>mixing (Note: Here, we use a mixing rule that is relatively similar to the Tersoff potential.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for D0(A-B), If the groups in the periodic table are too far apart, all the parameters must be fitted.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -93,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +112,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -136,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -239,13 +254,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +319,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C1554-5646-4BD1-B39C-E819901EC83D}">
-  <dimension ref="B1:J13"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -768,7 +804,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="12">
-        <f>SQRT(C5*C9)</f>
+        <f>C15*SQRT(C5*C9)</f>
         <v>1.5513269642470602</v>
       </c>
       <c r="D13" s="12">
@@ -796,6 +832,17 @@
       </c>
       <c r="J13" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/potentials/morse/generate_simple_mixing_potential.xlsx
+++ b/potentials/morse/generate_simple_mixing_potential.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manab\OneDrive\デスクトップ\lammps_metal\smatb\morse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A1F199-461A-42ED-94CF-4949A217F88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A08534-0D30-4F94-AADB-2DA591EBB5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="0" windowWidth="18615" windowHeight="15225" xr2:uid="{9FA31FFC-5884-4546-BFEE-7BADB99B6D33}"/>
+    <workbookView xWindow="435" yWindow="2235" windowWidth="23550" windowHeight="12690" xr2:uid="{9FA31FFC-5884-4546-BFEE-7BADB99B6D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>pair_style morse</t>
   </si>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>for D0(A-B), If the groups in the periodic table are too far apart, all the parameters must be fitted.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A-B atom, output (the interpolation relation)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -275,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +329,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4C1554-5646-4BD1-B39C-E819901EC83D}">
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -771,9 +778,19 @@
         <v>7</v>
       </c>
     </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+    </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="1"/>
@@ -788,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f>MAX(C4,C8)</f>
+        <f>MAX($C$4,$C$8)</f>
         <v>4.0118326010000001</v>
       </c>
       <c r="D12" t="s">
@@ -804,44 +821,107 @@
         <v>13</v>
       </c>
       <c r="C13" s="12">
-        <f>C15*SQRT(C5*C9)</f>
+        <f>$C$19*SQRT($C$5*$C$9)</f>
         <v>1.5513269642470602</v>
       </c>
       <c r="D13" s="12">
-        <f>(D5+D9)/2</f>
+        <f>($D$5+$D$9)/2</f>
         <v>1.0893999999999999</v>
       </c>
       <c r="E13" s="12">
-        <f>((D5*E5+D9*E9)/2)/D13</f>
-        <v>2.7167028364237198</v>
+        <f>SQRT(($E$5-LN(2)/$D$5)*($E$9-LN(2)/$D$9))+LN(2)/D13</f>
+        <v>2.6964284543760346</v>
       </c>
       <c r="F13" s="12">
-        <f>SQRT(F5*F9)</f>
-        <v>3.2642601474147246</v>
+        <f>SQRT(($F$5-LN(2)/$D$5)*($F$9-LN(2)/$D$9))+LN(2)/D13</f>
+        <v>3.2567966682867331</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="6" t="str">
+      <c r="H13" s="6">
+        <f>H1</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f>I5</f>
+        <v>Fe</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>MAX($C$4,$C$8)</f>
+        <v>4.0118326010000001</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12">
+        <f>$C$19*SQRT($C$5*$C$9)</f>
+        <v>1.5513269642470602</v>
+      </c>
+      <c r="D17" s="12">
+        <f>($D$5+$D$9)/2</f>
+        <v>1.0893999999999999</v>
+      </c>
+      <c r="E17" s="12">
+        <f>(($D$5*$E$5+$D$9*$E$9)/2)/D17</f>
+        <v>2.7167028364237198</v>
+      </c>
+      <c r="F17" s="12">
+        <f>SQRT($F$5*$F$9)</f>
+        <v>3.2642601474147246</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="6" t="str">
         <f>H5</f>
         <v>Fe</v>
       </c>
-      <c r="I13" s="7" t="str">
+      <c r="I17" s="7" t="str">
         <f>I9</f>
         <v>Mo</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="16" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C19" s="15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D19" t="s">
         <v>17</v>
       </c>
     </row>
